--- a/src/main/resources/Data Extraction.xlsx
+++ b/src/main/resources/Data Extraction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="24480" yWindow="1960" windowWidth="25600" windowHeight="15540" tabRatio="958" activeTab="8"/>
+    <workbookView xWindow="27940" yWindow="1480" windowWidth="25600" windowHeight="15540" tabRatio="958" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Mappings" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="418">
   <si>
     <t>Experiment ID</t>
   </si>
@@ -1388,6 +1388,9 @@
   </si>
   <si>
     <t>;</t>
+  </si>
+  <si>
+    <t>Findings</t>
   </si>
 </sst>
 </file>
@@ -2704,8 +2707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3622,7 +3625,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="10" t="s">
-        <v>125</v>
+        <v>417</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>125</v>
@@ -3651,7 +3654,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>417</v>
       </c>
       <c r="B33" t="s">
         <v>125</v>
@@ -3680,7 +3683,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>417</v>
       </c>
       <c r="B34" t="s">
         <v>125</v>
@@ -6995,7 +6998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
